--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
   <si>
     <t xml:space="preserve">Día</t>
   </si>
@@ -174,14 +174,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,7 +182,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,10 +271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,47 +292,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="5" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
+      <c r="A4" s="5" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -340,11 +336,11 @@
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>44930</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
+      <c r="A5" s="5" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -352,11 +348,11 @@
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>44931</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" s="5" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -364,31 +360,31 @@
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>44932</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>44935</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
+      <c r="A9" s="5" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -396,11 +392,11 @@
       <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>44936</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
+      <c r="A10" s="5" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -408,11 +404,11 @@
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>44937</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="5" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -420,11 +416,11 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>44938</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
+      <c r="A12" s="5" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -432,31 +428,31 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>44939</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>44942</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
+      <c r="A15" s="5" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -464,11 +460,11 @@
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>44943</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
+      <c r="A16" s="5" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -476,11 +472,11 @@
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>44944</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
+      <c r="A17" s="5" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -488,11 +484,11 @@
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>44945</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
+      <c r="A18" s="5" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -500,31 +496,31 @@
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>44946</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
+      <c r="A21" s="5" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -532,11 +528,11 @@
       <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>44950</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
+      <c r="A22" s="5" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -544,11 +540,11 @@
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>44951</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
+      <c r="A23" s="5" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -556,11 +552,11 @@
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
+      <c r="A24" s="5" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -568,433 +564,422 @@
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>44953</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
+      <c r="A26" s="5" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>44956</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="5" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="5" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="5" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>44959</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>44960</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>44963</v>
-      </c>
-      <c r="B33" s="4" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
-        <v>44964</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
-        <v>44965</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
-        <v>44966</v>
-      </c>
-      <c r="B36" s="4" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
-        <v>44967</v>
-      </c>
-      <c r="B37" s="4" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B39" s="4" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
-        <v>44971</v>
-      </c>
-      <c r="B40" s="4" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
-        <v>44973</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
-        <v>44974</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>44977</v>
-      </c>
-      <c r="B45" s="4" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
-        <v>44978</v>
-      </c>
-      <c r="B46" s="4" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
-        <v>44979</v>
-      </c>
-      <c r="B47" s="4" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
-        <v>44980</v>
-      </c>
-      <c r="B48" s="4" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
-        <v>44981</v>
-      </c>
-      <c r="B49" s="4" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>44984</v>
-      </c>
-      <c r="B51" s="4" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>44985</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>44987</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>44988</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
-        <v>44991</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>44992</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>44993</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>44994</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>44995</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>44998</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>44999</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>45000</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>45001</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>45002</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>45005</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
-        <v>45006</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
-        <v>45008</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
-        <v>45009</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
-        <v>45012</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
-        <v>45013</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
-        <v>45014</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
-        <v>45015</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
-        <v>45016</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -28,37 +28,37 @@
     <t xml:space="preserve">Responsable</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignacio</t>
+    <t xml:space="preserve">Hiho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach</t>
   </si>
   <si>
     <t xml:space="preserve">Agustin</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebastián</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isidora</t>
+    <t xml:space="preserve">Seba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isi</t>
   </si>
 </sst>
 </file>
@@ -273,8 +273,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="6" sqref="B15 B28 B40 B52 B64 B76 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -271,10 +271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="6" sqref="B15 B28 B40 B52 B64 B76 B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,8 +360,12 @@
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="5" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
@@ -369,10 +373,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -381,10 +385,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -393,10 +397,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -405,10 +409,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -417,10 +421,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -428,8 +432,12 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="5" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="0"/>
@@ -437,10 +445,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
-        <v>44942</v>
+        <v>44944</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -449,10 +457,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -461,10 +469,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
-        <v>44944</v>
+        <v>44946</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -473,10 +481,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
-        <v>44945</v>
+        <v>44949</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -485,10 +493,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -496,8 +504,12 @@
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="5" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
@@ -505,10 +517,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -517,10 +529,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -529,331 +541,343 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
-        <v>44953</v>
+        <v>44958</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
+      <c r="A25" s="5" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
-        <v>44956</v>
+        <v>44960</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
-        <v>44957</v>
+        <v>44963</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
-        <v>44959</v>
+        <v>44965</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
-        <v>44960</v>
+        <v>44966</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="5" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
-        <v>44963</v>
+        <v>44970</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
-        <v>44964</v>
+        <v>44971</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
-        <v>44965</v>
+        <v>44972</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="5" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
-        <v>44970</v>
+        <v>44978</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
-        <v>44971</v>
+        <v>44979</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
-        <v>44972</v>
+        <v>44980</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
-        <v>44974</v>
+        <v>44984</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="5" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
-        <v>44977</v>
+        <v>44986</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>44978</v>
+        <v>44987</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
-        <v>44979</v>
+        <v>44988</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
-        <v>44980</v>
+        <v>44991</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
-        <v>44981</v>
+        <v>44992</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="5" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
-        <v>44984</v>
+        <v>44994</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
-        <v>44985</v>
+        <v>44995</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
-        <v>44986</v>
+        <v>44998</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="5" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
-        <v>44991</v>
+        <v>45002</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
-        <v>44992</v>
+        <v>45005</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
-        <v>44993</v>
+        <v>45006</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
-        <v>44994</v>
+        <v>45007</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
-        <v>44995</v>
+        <v>45008</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>10</v>
@@ -861,7 +885,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>11</v>
@@ -869,7 +893,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>12</v>
@@ -877,7 +901,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
-        <v>45001</v>
+        <v>45015</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>3</v>
@@ -885,101 +909,12 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
-        <v>45005</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
-        <v>45006</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
-        <v>45008</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
-        <v>45009</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
-        <v>45012</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="n">
-        <v>45013</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
-        <v>45014</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
-        <v>45015</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
-        <v>45016</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t xml:space="preserve">Día</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Isi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan</t>
   </si>
 </sst>
 </file>
@@ -273,8 +276,8 @@
   </sheetPr>
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,7 +859,7 @@
         <v>45007</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,7 +899,7 @@
         <v>45014</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t xml:space="preserve">Día</t>
   </si>
@@ -28,6 +28,12 @@
     <t xml:space="preserve">Responsable</t>
   </si>
   <si>
+    <t xml:space="preserve">Dani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancho</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manu</t>
   </si>
   <si>
@@ -37,25 +43,22 @@
     <t xml:space="preserve">Hiho</t>
   </si>
   <si>
-    <t xml:space="preserve">Conchita</t>
+    <t xml:space="preserve">Seba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val</t>
   </si>
   <si>
     <t xml:space="preserve">Lucho</t>
   </si>
   <si>
-    <t xml:space="preserve">Dani</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juan</t>
   </si>
   <si>
-    <t xml:space="preserve">Pancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pato </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Val</t>
+    <t xml:space="preserve">Pato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
   </si>
 </sst>
 </file>
@@ -114,17 +117,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -153,28 +163,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,7 +250,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -236,7 +258,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -255,10 +277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,366 +312,345 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>45019</v>
+        <v>45076</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>45020</v>
+        <v>45077</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>45021</v>
+        <v>45078</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
+      <c r="C4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>45022</v>
+        <v>45079</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>45026</v>
+        <v>45082</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>45027</v>
+        <v>45083</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>45028</v>
+        <v>45084</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="H8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>45029</v>
+        <v>45085</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>45030</v>
+        <v>45086</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="H10" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>45033</v>
+        <v>45089</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="H11" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>45034</v>
+        <v>45090</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>45035</v>
+        <v>45091</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="H13" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>45036</v>
+        <v>45092</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>45037</v>
+        <v>45093</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="H15" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>45040</v>
+        <v>45096</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="H16" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>45041</v>
+        <v>45097</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>45042</v>
+        <v>45099</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>45043</v>
+        <v>45100</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>45044</v>
+        <v>45104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>45048</v>
+        <v>45105</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>45049</v>
+        <v>45106</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>45050</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>45051</v>
+        <v>45110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>45054</v>
+        <v>45111</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>45055</v>
+        <v>45112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>45056</v>
+        <v>45113</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>45057</v>
+        <v>45114</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>45058</v>
+        <v>45117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>45061</v>
+        <v>45118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>45062</v>
+        <v>45119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>45063</v>
+        <v>45120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>45064</v>
+        <v>45121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>45065</v>
+        <v>45124</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>11</v>
@@ -657,67 +658,239 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>45068</v>
+        <v>45125</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>45069</v>
+        <v>45126</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>45070</v>
+        <v>45127</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>45071</v>
+        <v>45128</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>45072</v>
+        <v>45131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>45075</v>
+        <v>45132</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>45076</v>
+        <v>45133</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>45077</v>
+        <v>45134</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Pato</t>
   </si>
   <si>
-    <t xml:space="preserve">Victoria</t>
+    <t xml:space="preserve">Vicky</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15 B25 B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t xml:space="preserve">Día</t>
   </si>
@@ -28,47 +28,49 @@
     <t xml:space="preserve">Responsable</t>
   </si>
   <si>
+    <t xml:space="preserve">Pato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agustin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucho</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dani</t>
   </si>
   <si>
     <t xml:space="preserve">Pancho</t>
   </si>
   <si>
-    <t xml:space="preserve">Manu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucho</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -163,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,18 +183,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,10 +267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15 B25 B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="6" sqref="B12 B25 B35 B45 B55 B63 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,585 +302,499 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>45076</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>45139</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>45077</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>45140</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>45141</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>45079</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>45142</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>45082</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>45145</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>45083</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>45146</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>45084</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>45147</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>45085</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>45148</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>45086</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3"/>
+        <v>45149</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>45089</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>45152</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>45090</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
+        <v>45154</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>45091</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
+        <v>45155</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>45092</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
+        <v>45156</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>45093</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>45159</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>45096</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>45160</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>45097</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>45161</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>45099</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>45162</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>45100</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>45163</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>45104</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>45166</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>45105</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>45167</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>45106</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>45168</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>45107</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>45169</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>45110</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>45111</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>45170</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>45112</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
+        <v>45173</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>45113</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>45174</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>45114</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>45175</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>45117</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>45176</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>45118</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>45177</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>45119</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>2</v>
+        <v>45180</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>45120</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>45181</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>45121</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>3</v>
+        <v>45182</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>45124</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>45183</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>45125</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
+        <v>45184</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>45126</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>45189</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>45127</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>45190</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>45128</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>45191</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>45131</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>45194</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>45132</v>
-      </c>
-      <c r="B40" s="3" t="s">
+        <v>45195</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>45133</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
+        <v>45196</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>45134</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>2</v>
+        <v>45197</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>45135</v>
-      </c>
-      <c r="B43" s="3" t="s">
+        <v>45198</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>45138</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-    </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="4" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="4" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="4" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="4" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="4" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="4" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="4" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="4" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="4" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="4" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="4" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A64" s="4" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dailies.xlsx
+++ b/dailies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t xml:space="preserve">Día</t>
   </si>
@@ -28,40 +28,40 @@
     <t xml:space="preserve">Responsable</t>
   </si>
   <si>
+    <t xml:space="preserve">Agustin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiho</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pato</t>
   </si>
   <si>
-    <t xml:space="preserve">Agustin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiho</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nach</t>
   </si>
   <si>
-    <t xml:space="preserve">Seba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan</t>
+    <t xml:space="preserve">Vale</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -139,6 +139,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -165,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +186,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="6" sqref="B12 B25 B35 B45 B55 B63 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="2" sqref="B13 B24 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +317,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>45139</v>
+        <v>45232</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -310,7 +325,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>45140</v>
+        <v>45233</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -318,7 +333,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>45141</v>
+        <v>45236</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -326,7 +341,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>45142</v>
+        <v>45237</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -334,7 +349,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>45145</v>
+        <v>45238</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -342,7 +357,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>45146</v>
+        <v>45239</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -350,7 +365,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>45147</v>
+        <v>45240</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -358,7 +373,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>45148</v>
+        <v>45243</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -366,7 +381,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>45149</v>
+        <v>45244</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -374,7 +389,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>45152</v>
+        <v>45245</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -382,7 +397,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>45154</v>
+        <v>45246</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -390,31 +405,31 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>45155</v>
+        <v>45247</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>45156</v>
+        <v>45250</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>45159</v>
+        <v>45251</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>45160</v>
+        <v>45252</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -422,67 +437,71 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>45161</v>
+        <v>45253</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>45162</v>
+        <v>45254</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>45163</v>
+        <v>45257</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>45166</v>
+        <v>45258</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>45167</v>
+        <v>45259</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>45168</v>
+        <v>45260</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>45169</v>
+        <v>45261</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>45170</v>
+        <v>45265</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -490,7 +509,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>45173</v>
+        <v>45266</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>2</v>
@@ -498,7 +517,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>45174</v>
+        <v>45267</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
@@ -506,63 +525,63 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>45175</v>
+        <v>45271</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>45176</v>
+        <v>45272</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>45177</v>
+        <v>45273</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>45180</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>45181</v>
+        <v>45275</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>45182</v>
+        <v>45278</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>45183</v>
+        <v>45279</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>45184</v>
+        <v>45280</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>12</v>
@@ -570,236 +589,121 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>45189</v>
+        <v>45281</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>45190</v>
+        <v>45282</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>45191</v>
+        <v>45286</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>45194</v>
+        <v>45287</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>45195</v>
+        <v>45288</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>45196</v>
+        <v>45289</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>45197</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>45198</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>45201</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <v>45202</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <v>45203</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <v>45204</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>45205</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>45209</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <v>45210</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <v>45211</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
-        <v>45212</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <v>45215</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <v>45216</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <v>45217</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>45218</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
-        <v>45219</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
-        <v>45222</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
-        <v>45223</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
-        <v>45224</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
-        <v>45229</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
